--- a/src/Stolons/wwwroot/bills/Producer/3/2016_29_3.xlsx
+++ b/src/Stolons/wwwroot/bills/Producer/3/2016_29_3.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Producteur :</t>
   </si>
@@ -39,13 +39,19 @@
     <t>A la pièce</t>
   </si>
   <si>
+    <t>Rien</t>
+  </si>
+  <si>
     <t>Quantité</t>
   </si>
   <si>
     <t>Prix total</t>
   </si>
   <si>
-    <t>• 1</t>
+    <t>• 2</t>
+  </si>
+  <si>
+    <t>1 pièce</t>
   </si>
   <si>
     <t>☐</t>
@@ -63,25 +69,28 @@
     <t>TOTAL</t>
   </si>
   <si>
+    <t>Tomates grappe</t>
+  </si>
+  <si>
+    <t>Au poids par 500 g</t>
+  </si>
+  <si>
+    <t>2,5 Kg</t>
+  </si>
+  <si>
     <t>Salade</t>
   </si>
   <si>
-    <t>Pomme de terre</t>
-  </si>
-  <si>
-    <t>Au poids par 1 kg</t>
+    <t>Radis</t>
+  </si>
+  <si>
+    <t>Thyn sauvage 2</t>
   </si>
   <si>
     <t>Total comission à 5%</t>
   </si>
   <si>
     <t>TOTAL :</t>
-  </si>
-  <si>
-    <t>1 pièce</t>
-  </si>
-  <si>
-    <t>1 Kg</t>
   </si>
   <si>
     <t>Sans comission</t>
@@ -114,11 +123,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <name val="Calibri"/>
     </font>
@@ -134,6 +138,11 @@
     </font>
     <font>
       <sz val="14"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -169,7 +178,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -181,6 +190,13 @@
       <left/>
       <right/>
       <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
@@ -258,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf fontId="0" applyFont="1" xfId="0"/>
     <xf fontId="0" applyFont="1" xfId="0">
       <alignment horizontal="left"/>
@@ -269,83 +285,93 @@
     <xf fontId="1" applyFont="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="4" applyFont="1" borderId="2" applyBorder="1" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="4" applyFont="1" borderId="3" applyBorder="1" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="5" applyFont="1" borderId="5" applyBorder="1" xfId="0">
+    <xf fontId="3" applyFont="1" borderId="2" applyBorder="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="3" applyFont="1" borderId="3" applyBorder="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" borderId="4" applyBorder="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="4" applyFont="1" borderId="6" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="5" applyFont="1" borderId="6" applyBorder="1" xfId="0">
+    <xf fontId="4" applyFont="1" borderId="7" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="4" applyFont="1" borderId="2" applyBorder="1" xfId="0"/>
-    <xf fontId="4" applyFont="1" borderId="3" applyBorder="1" xfId="0"/>
+    <xf fontId="3" applyFont="1" borderId="2" applyBorder="1" xfId="0"/>
+    <xf fontId="3" applyFont="1" borderId="3" applyBorder="1" xfId="0"/>
+    <xf fontId="3" applyFont="1" borderId="4" applyBorder="1" xfId="0"/>
     <xf fontId="0" applyFont="1" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" applyFont="1" borderId="5" applyBorder="1" xfId="0">
+    <xf fontId="0" applyFont="1" borderId="1" applyBorder="1" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf fontId="0" applyFont="1" borderId="4" applyBorder="1" xfId="0"/>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" borderId="7" applyBorder="1" xfId="0"/>
-    <xf fontId="6" applyFont="1" borderId="8" applyBorder="1" xfId="0">
+    <xf fontId="0" applyFont="1" borderId="6" applyBorder="1" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf fontId="6" applyFont="1" borderId="2" applyBorder="1" xfId="0">
+    <xf fontId="0" applyFont="1" borderId="5" applyBorder="1" xfId="0"/>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" borderId="8" applyBorder="1" xfId="0"/>
+    <xf fontId="5" applyFont="1" borderId="9" applyBorder="1" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="6" applyFont="1" borderId="3" applyBorder="1" xfId="0">
+    <xf fontId="5" applyFont="1" borderId="3" applyBorder="1" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="6" applyFont="1" xfId="0"/>
-    <xf fontId="6" applyFont="1" borderId="1" applyBorder="1" xfId="0">
+    <xf fontId="5" applyFont="1" borderId="2" applyBorder="1" xfId="0">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="5" applyFont="1" borderId="4" applyBorder="1" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="5" applyFont="1" xfId="0"/>
+    <xf fontId="2" applyFont="1" borderId="3" applyBorder="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="2" applyFont="1" borderId="9" applyBorder="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf fontId="2" applyFont="1" borderId="2" applyBorder="1" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="2" applyFont="1" borderId="8" applyBorder="1" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="2" applyFont="1" borderId="3" applyBorder="1" xfId="0">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="2" applyFont="1" borderId="4" applyBorder="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="6" applyFont="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="5" applyFont="1" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
     <xf fontId="7" applyFont="1" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="6" applyFont="1" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf fontId="3" applyFont="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="7" applyFont="1" xfId="0"/>
+    <xf fontId="8" applyFont="1" borderId="10" applyBorder="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="8" applyFont="1" borderId="11" applyBorder="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="8" applyFont="1" borderId="12" applyBorder="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="10" applyFont="1" borderId="10" applyBorder="1" xfId="0"/>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="10" applyFont="1" borderId="10" applyBorder="1" xfId="0"/>
+    <xf fontId="10" applyFont="1" borderId="10" applyBorder="1" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" xfId="0"/>
-    <xf fontId="8" applyFont="1" borderId="9" applyBorder="1" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="8" applyFont="1" borderId="10" applyBorder="1" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="8" applyFont="1" borderId="11" applyBorder="1" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="10" applyFont="1" borderId="9" applyBorder="1" xfId="0"/>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="10" applyFont="1" borderId="9" applyBorder="1" xfId="0"/>
-    <xf fontId="10" applyFont="1" borderId="9" applyBorder="1" xfId="0">
+    <xf fontId="9" applyFont="1" borderId="11" applyBorder="1" xfId="0"/>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="10" applyFont="1" borderId="12" applyBorder="1" xfId="0"/>
+    <xf fontId="11" applyFont="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="2" applyFont="1" borderId="4" applyBorder="1" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf fontId="9" applyFont="1" borderId="10" applyBorder="1" xfId="0"/>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="10" applyFont="1" borderId="11" applyBorder="1" xfId="0"/>
-    <xf fontId="11" applyFont="1" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="2" applyFont="1" borderId="3" applyBorder="1" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf fontId="2" applyFont="1" borderId="2" applyBorder="1" xfId="0">
+    <xf fontId="2" applyFont="1" borderId="3" applyBorder="1" xfId="0">
       <alignment horizontal="right"/>
     </xf>
     <xf fontId="12" applyFont="1" xfId="0">
@@ -362,16 +388,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0" view="pageLayout"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="41.4285714285714" customWidth="1"/>
-    <col min="2" max="2" width="18.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="0" customWidth="1"/>
     <col min="3" max="3" width="18.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="5.71428571428571" customWidth="1"/>
+    <col min="4" max="4" width="18.5714285714286" customWidth="1"/>
+    <col min="5" max="5" width="5.71428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -411,243 +438,467 @@
       <c r="B5" s="1"/>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4"/>
+      <c r="D7" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>9</v>
       </c>
+      <c r="D8" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="12">
+      <c r="A9" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="15">
         <v>1</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="16">
         <f>B9*C7</f>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>11</v>
+      <c r="E9" s="12" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="18">
+        <f>SUBTOTAL(9,B9)</f>
+      </c>
+      <c r="C10" s="19">
+        <f>SUBTOTAL(9,B9)</f>
+      </c>
+      <c r="D10" s="20">
+        <f>B10*D7</f>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="20">
+        <f>B11*D10</f>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="23">
+        <f>B10</f>
+      </c>
+      <c r="C12" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="15">
-        <f>SUBTOTAL(9,B9)</f>
-      </c>
-      <c r="C10" s="16">
-        <f>B10*C7</f>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="16">
-        <f>B11*C10</f>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="20">
-        <f>B10</f>
-      </c>
-      <c r="C12" s="21">
-        <f>C10-C11</f>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>11</v>
+      <c r="D12" s="25">
+        <f>D10-D11</f>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="5">
-        <v>0.800000011920929</v>
+      <c r="A14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="6">
+        <v>1.5</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="8" t="s">
+      <c r="A15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>9</v>
       </c>
+      <c r="D15" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="12">
-        <v>1</v>
-      </c>
-      <c r="C16" s="13">
+      <c r="A16" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="15">
+        <v>5</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="16">
         <f>B16*C14</f>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>11</v>
+      <c r="E16" s="12" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="15">
+      <c r="A17" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="18">
         <f>SUBTOTAL(9,B16)</f>
       </c>
-      <c r="C17" s="16">
-        <f>B17*C14</f>
+      <c r="C17" s="19">
+        <f>SUBTOTAL(9,B16)</f>
+      </c>
+      <c r="D17" s="20">
+        <f>B17*D14</f>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="16">
-        <f>B18*C17</f>
+      <c r="A18" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="20">
+        <f>B18*D17</f>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="20">
+      <c r="A19" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="23">
         <f>B17</f>
       </c>
-      <c r="C19" s="21">
-        <f>C17-C18</f>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>11</v>
+      <c r="C19" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="25">
+        <f>D17-D18</f>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="5">
-        <v>1.9900000095367432</v>
+      <c r="A21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="6">
+        <v>0.800000011920929</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="8" t="s">
+      <c r="A22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>9</v>
       </c>
+      <c r="D22" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="15">
+        <v>1</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="16">
+        <f>B23*C21</f>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="18">
+        <f>SUBTOTAL(9,B23)</f>
+      </c>
+      <c r="C24" s="19">
+        <f>SUBTOTAL(9,B23)</f>
+      </c>
+      <c r="D24" s="20">
+        <f>B24*D21</f>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="20">
+        <f>B25*D24</f>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="23">
+        <f>B24</f>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="25">
+        <f>D24-D25</f>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="12">
+    </row>
+    <row r="30">
+      <c r="A30" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="15">
         <v>1</v>
       </c>
-      <c r="C23" s="13">
-        <f>B23*C21</f>
-      </c>
-      <c r="D23" s="10" t="s">
+      <c r="C30" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="16">
+        <f>B30*C28</f>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="18">
+        <f>SUBTOTAL(9,B30)</f>
+      </c>
+      <c r="C31" s="19">
+        <f>SUBTOTAL(9,B30)</f>
+      </c>
+      <c r="D31" s="20">
+        <f>B31*D28</f>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="20">
+        <f>B32*D31</f>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="23">
+        <f>B31</f>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="25">
+        <f>D31-D32</f>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="14" t="s">
+      <c r="B37" s="15">
+        <v>1</v>
+      </c>
+      <c r="C37" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="15">
-        <f>SUBTOTAL(9,B23)</f>
-      </c>
-      <c r="C24" s="16">
-        <f>B24*C21</f>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="18" t="s">
+      <c r="D37" s="16">
+        <f>B37*C35</f>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="16">
-        <f>B25*C24</f>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="19" t="s">
+      <c r="B38" s="18">
+        <f>SUBTOTAL(9,B37)</f>
+      </c>
+      <c r="C38" s="19">
+        <f>SUBTOTAL(9,B37)</f>
+      </c>
+      <c r="D38" s="20">
+        <f>B38*D35</f>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="20">
-        <f>B24</f>
-      </c>
-      <c r="C26" s="21">
-        <f>C24-C25</f>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="23" t="s">
+      <c r="B39" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="20">
+        <f>B39*D38</f>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="23">
+        <f>B38</f>
+      </c>
+      <c r="C40" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="17">
-        <f>C10+C17+C24</f>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="17">
-        <f>C11+C18+C25</f>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="25">
-        <f>C28-C29</f>
+      <c r="D40" s="25">
+        <f>D38-D39</f>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="21">
+        <f>D10+D17+D24+D31+D38</f>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="21">
+        <f>D11+D18+D25+D32+D39</f>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="29">
+        <f>D42-D43</f>
       </c>
     </row>
   </sheetData>
@@ -655,6 +906,8 @@
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A35:A36"/>
   </mergeCells>
   <headerFooter/>
 </worksheet>
@@ -662,7 +915,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0" view="pageLayout"/>
   </sheetViews>
@@ -713,131 +966,171 @@
       <c r="B5" s="1"/>
     </row>
     <row r="7">
-      <c r="A7" s="27">
-        <v>1</v>
-      </c>
-      <c r="B7" s="26">
-        <v>1</v>
-      </c>
-      <c r="C7" s="26">
-        <v>1</v>
-      </c>
-      <c r="D7" s="26">
-        <v>1</v>
-      </c>
-      <c r="E7" s="28">
-        <v>1</v>
+      <c r="A7" s="31">
+        <v>2</v>
+      </c>
+      <c r="B7" s="30">
+        <v>2</v>
+      </c>
+      <c r="C7" s="30">
+        <v>2</v>
+      </c>
+      <c r="D7" s="30">
+        <v>2</v>
+      </c>
+      <c r="E7" s="32">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="34">
         <v>4</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="37">
+        <f>1*C8</f>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="34">
+        <v>4</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="37">
+        <f>1*C9</f>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="33">
-        <f>1*C8</f>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="32" t="s">
+      <c r="B10" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="34">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="37">
+        <f>1*C10</f>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="34">
+        <v>3</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="37">
+        <f>1*C11</f>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="34">
+        <v>1.5</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="37">
+        <f>5*C12</f>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="20">
+        <f>SUBTOTAL(9,E8:E12)</f>
+      </c>
+    </row>
+    <row r="14">
+      <c r="D14" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="20">
+        <f>5% * E13</f>
+      </c>
+    </row>
+    <row r="15">
+      <c r="D15" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="30">
-        <v>1.9900000095367432</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="33">
-        <f>1*C9</f>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="30">
-        <v>0.800000011920929</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="33">
-        <f>1*C10</f>
-      </c>
-      <c r="F10" s="34" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="D11" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="16">
-        <f>SUBTOTAL(9,E8:E10)</f>
-      </c>
-    </row>
-    <row r="12">
-      <c r="D12" s="15" t="s">
+      <c r="E15" s="39">
+        <f>E13-E14</f>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="D18" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="42">
+        <f>E13</f>
+      </c>
+    </row>
+    <row r="19">
+      <c r="D19" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="16">
-        <f>5% * E11</f>
-      </c>
-    </row>
-    <row r="13">
-      <c r="D13" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="35">
-        <f>E11-E12</f>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="D16" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="38">
-        <f>E11</f>
-      </c>
-    </row>
-    <row r="17">
-      <c r="D17" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="38">
-        <f>E12</f>
-      </c>
-    </row>
-    <row r="18">
-      <c r="D18" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="25">
-        <f>E16-E17</f>
+      <c r="E19" s="42">
+        <f>E14</f>
+      </c>
+    </row>
+    <row r="20">
+      <c r="D20" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="29">
+        <f>E18-E19</f>
       </c>
     </row>
   </sheetData>
